--- a/Data/Registro Profissional MTE.xlsx
+++ b/Data/Registro Profissional MTE.xlsx
@@ -1,21 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/OccupationalLicensingBR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/OccupationalLicensingBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE32E5B-B101-6D4A-AB0E-10B16F59F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED140062-51F8-D449-A59A-6C1715FD4A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{0B064F23-81F4-C54D-BD6E-68F3DCEC5FBA}"/>
+    <workbookView xWindow="3060" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0B064F23-81F4-C54D-BD6E-68F3DCEC5FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$14:$A$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$14:$B$22</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$C$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$C$14:$C$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$D$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$D$14:$D$22</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$E$13</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$E$14:$E$22</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$F$13</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$F$14:$F$22</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$13</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$14:$A$22</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet2!$F$13</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet2!$F$14:$F$22</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$13</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$14:$B$22</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$C$13</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$C$14:$C$22</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$D$13</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet2!$D$14:$D$22</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet2!$E$13</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet2!$E$14:$E$22</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>-</t>
   </si>
@@ -91,12 +118,40 @@
   <si>
     <t>Ocupação</t>
   </si>
+  <si>
+    <t>8,31</t>
+  </si>
+  <si>
+    <t>17,61</t>
+  </si>
+  <si>
+    <t>1,67</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Radio Broadcaster</t>
+  </si>
+  <si>
+    <t>Labor Safety Technician</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +179,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,20 +210,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -169,6 +242,1379 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Professional</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Registries, Ministry of Labor and Employment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Artist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2252-AA47-9F07-FA087A6C93C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Journalist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2252-AA47-9F07-FA087A6C93C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radio Broadcaster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2252-AA47-9F07-FA087A6C93C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Labor Safety Technician</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2252-AA47-9F07-FA087A6C93C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2252-AA47-9F07-FA087A6C93C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="627984208"/>
+        <c:axId val="627812208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="627984208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627812208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="627812208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627984208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB548E8-5EF1-FC25-2DEB-408C9A62B5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,47 +1936,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62AEBCB-7D7F-AC4D-813E-3DBC3206D73A}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" activeCellId="3" sqref="K13 K9 K7 K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>2020</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>2021</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>2022</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>2023</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -538,34 +1985,34 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>39</v>
       </c>
     </row>
@@ -573,34 +2020,34 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>271</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>278</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>328</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>219</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>243</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>53</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>193</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>192</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>221</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1.7769999999999999</v>
       </c>
     </row>
@@ -608,69 +2055,69 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>8.3859999999999992</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.1150000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9.2210000000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.3609999999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8.31</v>
-      </c>
-      <c r="I4" s="2">
-        <v>7.9249999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>7.7569999999999997</v>
-      </c>
-      <c r="K4" s="4">
-        <v>67.22</v>
+      <c r="B4" s="5">
+        <v>8386</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8115</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9302</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9221</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10600</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5361</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7925</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7757</v>
+      </c>
+      <c r="K4" s="3">
+        <v>67220</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>129</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>134</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>130</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>145</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>91</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>106</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>62</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>144</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>812</v>
       </c>
     </row>
@@ -678,104 +2125,105 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>731</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>776</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>501</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>426</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>415</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>201</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>247</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>246</v>
       </c>
-      <c r="K6" s="4">
-        <v>3.3039999999999998</v>
+      <c r="K6" s="3">
+        <v>3304</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>7.4379999999999997</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.6429999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.8070000000000004</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.3520000000000003</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.069</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.649</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7.7370000000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7.3049999999999997</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6.9850000000000003</v>
-      </c>
-      <c r="K7" s="4">
-        <v>54</v>
+      <c r="B7" s="5">
+        <v>7438</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6643</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7807</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7352</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7069</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2649</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7737</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7305</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6985</v>
+      </c>
+      <c r="K7" s="7">
+        <f>SUM(B7:J7)</f>
+        <v>60985</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>408</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>439</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>371</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>453</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>372</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>90</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>280</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>218</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>279</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>2.6309999999999998</v>
       </c>
     </row>
@@ -783,139 +2231,139 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>13.037000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11.701000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>13.137</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7.6130000000000004</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5.7430000000000003</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2.214</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6.3109999999999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5.4390000000000001</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.7149999999999999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>65.194999999999993</v>
+      <c r="B9" s="5">
+        <v>13037</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11701</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13137</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7613</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5743</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2214</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6311</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5439</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4715</v>
+      </c>
+      <c r="K9" s="3">
+        <v>65195</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.175</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.044</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="5">
+        <v>1175</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1044</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1148</v>
+      </c>
+      <c r="E10" s="5">
         <v>953</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>769</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>401</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>783</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>670</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>751</v>
       </c>
-      <c r="K10" s="4">
-        <v>6.9429999999999996</v>
+      <c r="K10" s="3">
+        <v>6943</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>182</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>190</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>131</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>141</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>107</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>37</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>136</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>118</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>236</v>
       </c>
-      <c r="K11" s="4">
-        <v>1.042</v>
+      <c r="K11" s="3">
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>580</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>482</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>387</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>339</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>209</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>39</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>144</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>115</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>118</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>2.2949999999999999</v>
       </c>
     </row>
@@ -923,176 +2371,943 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>33.322000000000003</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30.844000000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>25.062000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20.097000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>17.61</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10.061999999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>16.693000000000001</v>
-      </c>
-      <c r="I13" s="2">
-        <v>18.175999999999998</v>
-      </c>
-      <c r="J13" s="2">
-        <v>23.818999999999999</v>
-      </c>
-      <c r="K13" s="4">
-        <v>171.86600000000001</v>
+      <c r="B13" s="5">
+        <v>33322</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30844</v>
+      </c>
+      <c r="D13" s="5">
+        <v>25062</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20097</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10062</v>
+      </c>
+      <c r="H13" s="5">
+        <v>16693</v>
+      </c>
+      <c r="I13" s="5">
+        <v>18176</v>
+      </c>
+      <c r="J13" s="5">
+        <v>23819</v>
+      </c>
+      <c r="K13" s="3">
+        <v>171886</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.879</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2.0739999999999998</v>
-      </c>
-      <c r="K14" s="4">
-        <v>14.849</v>
+      <c r="B14" s="5">
+        <v>1566</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1215</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1882</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2127</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2219</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1289</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2672</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1879</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2074</v>
+      </c>
+      <c r="K14" s="3">
+        <v>14859</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.732</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.371</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="B15" s="5">
+        <v>2147</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1732</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1371</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1186</v>
+      </c>
+      <c r="G15" s="5">
         <v>615</v>
       </c>
-      <c r="H15" s="2">
-        <v>1.518</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>11.317</v>
+      <c r="H15" s="5">
+        <v>1518</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1078</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1469</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11317</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
-        <v>4.0229999999999997</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="5">
+        <v>4023</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I16" s="5">
         <v>687</v>
       </c>
-      <c r="J16" s="2">
-        <v>5.032</v>
-      </c>
-      <c r="K16" s="4"/>
+      <c r="J16" s="5">
+        <v>5032</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUM(G16:J16)</f>
+        <v>10751</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>69.382999999999996</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>63.603999999999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>61.868000000000002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>50.462000000000003</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>46.633000000000003</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>22.832000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>49.106999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>44.433</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>49.500999999999998</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>408.322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB7C8C-3E9A-BB4B-9E6F-8D8862F56404}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>271</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8386</v>
+      </c>
+      <c r="E2" s="5">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5">
+        <v>731</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7438</v>
+      </c>
+      <c r="H2" s="5">
+        <v>408</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13037</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1175</v>
+      </c>
+      <c r="K2" s="5">
+        <v>182</v>
+      </c>
+      <c r="L2" s="5">
+        <v>580</v>
+      </c>
+      <c r="M2" s="5">
+        <v>33322</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1566</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2147</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>SUM(B2:P2)</f>
+        <v>69383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>278</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8115</v>
+      </c>
+      <c r="E3" s="5">
+        <v>134</v>
+      </c>
+      <c r="F3" s="5">
+        <v>776</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6643</v>
+      </c>
+      <c r="H3" s="5">
+        <v>439</v>
+      </c>
+      <c r="I3" s="5">
+        <v>11701</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1044</v>
+      </c>
+      <c r="K3" s="5">
+        <v>190</v>
+      </c>
+      <c r="L3" s="5">
+        <v>482</v>
+      </c>
+      <c r="M3" s="5">
+        <v>30844</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1215</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1732</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q10" si="0">SUM(B3:P3)</f>
+        <v>63604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>328</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9302</v>
+      </c>
+      <c r="E4" s="5">
+        <v>130</v>
+      </c>
+      <c r="F4" s="5">
+        <v>501</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7807</v>
+      </c>
+      <c r="H4" s="5">
+        <v>371</v>
+      </c>
+      <c r="I4" s="5">
+        <v>13137</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1148</v>
+      </c>
+      <c r="K4" s="5">
+        <v>131</v>
+      </c>
+      <c r="L4" s="5">
+        <v>387</v>
+      </c>
+      <c r="M4" s="5">
+        <v>25062</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1882</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1670</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="0"/>
+        <v>61868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>219</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9221</v>
+      </c>
+      <c r="E5" s="5">
+        <v>145</v>
+      </c>
+      <c r="F5" s="5">
+        <v>426</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7352</v>
+      </c>
+      <c r="H5" s="5">
+        <v>453</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7613</v>
+      </c>
+      <c r="J5" s="5">
+        <v>953</v>
+      </c>
+      <c r="K5" s="5">
+        <v>141</v>
+      </c>
+      <c r="L5" s="5">
+        <v>339</v>
+      </c>
+      <c r="M5" s="5">
+        <v>20097</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2127</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1371</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>50462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>243</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10600</v>
+      </c>
+      <c r="E6" s="5">
+        <v>91</v>
+      </c>
+      <c r="F6" s="5">
+        <v>415</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7069</v>
+      </c>
+      <c r="H6" s="5">
+        <v>372</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5743</v>
+      </c>
+      <c r="J6" s="5">
+        <v>769</v>
+      </c>
+      <c r="K6" s="5">
+        <v>107</v>
+      </c>
+      <c r="L6" s="5">
+        <v>209</v>
+      </c>
+      <c r="M6" s="5">
+        <v>17610</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2219</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1186</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>46633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5361</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2649</v>
+      </c>
+      <c r="H7" s="5">
+        <v>90</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2214</v>
+      </c>
+      <c r="J7" s="5">
+        <v>401</v>
+      </c>
+      <c r="K7" s="5">
+        <v>37</v>
+      </c>
+      <c r="L7" s="5">
+        <v>39</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10062</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1289</v>
+      </c>
+      <c r="O7" s="5">
+        <v>615</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="0"/>
+        <v>22832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>193</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8310</v>
+      </c>
+      <c r="E8" s="5">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5">
+        <v>201</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7737</v>
+      </c>
+      <c r="H8" s="5">
+        <v>280</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6311</v>
+      </c>
+      <c r="J8" s="5">
+        <v>783</v>
+      </c>
+      <c r="K8" s="5">
+        <v>136</v>
+      </c>
+      <c r="L8" s="5">
+        <v>144</v>
+      </c>
+      <c r="M8" s="5">
+        <v>16693</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2672</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1518</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4023</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="0"/>
+        <v>49107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>192</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7925</v>
+      </c>
+      <c r="E9" s="5">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5">
+        <v>247</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7305</v>
+      </c>
+      <c r="H9" s="5">
+        <v>218</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5439</v>
+      </c>
+      <c r="J9" s="5">
+        <v>670</v>
+      </c>
+      <c r="K9" s="5">
+        <v>118</v>
+      </c>
+      <c r="L9" s="5">
+        <v>115</v>
+      </c>
+      <c r="M9" s="5">
+        <v>18176</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1879</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1078</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1009</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>221</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7757</v>
+      </c>
+      <c r="E10" s="5">
+        <v>144</v>
+      </c>
+      <c r="F10" s="5">
+        <v>246</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6985</v>
+      </c>
+      <c r="H10" s="5">
+        <v>279</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4715</v>
+      </c>
+      <c r="J10" s="5">
+        <v>751</v>
+      </c>
+      <c r="K10" s="5">
+        <v>236</v>
+      </c>
+      <c r="L10" s="5">
+        <v>118</v>
+      </c>
+      <c r="M10" s="5">
+        <v>23819</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2074</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1469</v>
+      </c>
+      <c r="P10" s="5">
+        <v>687</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>49501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8386</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7438</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13037</v>
+      </c>
+      <c r="E14" s="5">
+        <v>33322</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Q2-SUM(B14:E14)</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8115</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6643</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11701</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30844</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F22" si="1">Q3-SUM(B15:E15)</f>
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9302</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7807</v>
+      </c>
+      <c r="D16" s="5">
+        <v>13137</v>
+      </c>
+      <c r="E16" s="5">
+        <v>25062</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9221</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7352</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7613</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20097</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10600</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7069</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5743</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17610</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5361</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2649</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2214</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10062</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8310</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7737</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6311</v>
+      </c>
+      <c r="E20" s="5">
+        <v>16693</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7925</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7305</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5439</v>
+      </c>
+      <c r="E21" s="5">
+        <v>18176</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7757</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6985</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4715</v>
+      </c>
+      <c r="E22" s="5">
+        <v>23819</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>6225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Registro Profissional MTE.xlsx
+++ b/Data/Registro Profissional MTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/OccupationalLicensingBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED140062-51F8-D449-A59A-6C1715FD4A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4669692-3ECB-E54F-9512-172882BB5CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0B064F23-81F4-C54D-BD6E-68F3DCEC5FBA}"/>
   </bookViews>
@@ -16,32 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$14:$A$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$13</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$14:$B$22</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$C$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$C$14:$C$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$D$13</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$D$14:$D$22</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$E$13</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$E$14:$E$22</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$F$13</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$F$14:$F$22</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$13</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$14:$A$22</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet2!$F$13</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet2!$F$14:$F$22</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$13</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$14:$B$22</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$C$13</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$C$14:$C$22</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$D$13</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet2!$D$14:$D$22</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet2!$E$13</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet2!$E$14:$E$22</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -149,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -222,9 +196,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,16 +1554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2553,7 +2527,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,6 +3111,10 @@
         <f>Q2-SUM(B14:E14)</f>
         <v>7200</v>
       </c>
+      <c r="G14">
+        <f>F14/SUM(B14:E14)</f>
+        <v>0.11578727304890404</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -3158,6 +3136,10 @@
         <f t="shared" ref="F15:F22" si="1">Q3-SUM(B15:E15)</f>
         <v>6301</v>
       </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G22" si="2">F15/SUM(B15:E15)</f>
+        <v>0.10995933895258538</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -3179,8 +3161,12 @@
         <f t="shared" si="1"/>
         <v>6560</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.1186085195631735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
@@ -3200,8 +3186,12 @@
         <f t="shared" si="1"/>
         <v>6179</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.13953435855745996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2019</v>
       </c>
@@ -3221,8 +3211,12 @@
         <f t="shared" si="1"/>
         <v>5611</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.13678026424845205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
@@ -3242,8 +3236,12 @@
         <f t="shared" si="1"/>
         <v>2546</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.12550527457359756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2021</v>
       </c>
@@ -3263,8 +3261,12 @@
         <f t="shared" si="1"/>
         <v>10056</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.25750941077053086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2022</v>
       </c>
@@ -3284,8 +3286,12 @@
         <f t="shared" si="1"/>
         <v>5588</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.14385377783498521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2023</v>
       </c>
@@ -3304,6 +3310,10 @@
       <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>6225</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.14384416304649228</v>
       </c>
     </row>
   </sheetData>
